--- a/auswertung/C-CLASS/C-CLASS_test_FM.xlsx
+++ b/auswertung/C-CLASS/C-CLASS_test_FM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="18915" windowHeight="11820"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="28515" windowHeight="13350"/>
   </bookViews>
   <sheets>
     <sheet name="C-CLASS_test_FM" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="44">
   <si>
     <t>model</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>als</t>
+  </si>
+  <si>
+    <t>MODEL MANUFACTURER</t>
+  </si>
+  <si>
+    <t>MODEL MANUFACTURER ENGINE_TYPE_GROUP</t>
   </si>
 </sst>
 </file>
@@ -968,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE32"/>
+  <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4036,6 +4042,576 @@
         <v>0</v>
       </c>
     </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>1600</v>
+      </c>
+      <c r="E33">
+        <v>0.8</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0.5</v>
+      </c>
+      <c r="L33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R33">
+        <v>1541.8896593776301</v>
+      </c>
+      <c r="S33">
+        <v>1086.17</v>
+      </c>
+      <c r="T33">
+        <v>9.4617325483599704E-2</v>
+      </c>
+      <c r="U33">
+        <v>0.139613120269134</v>
+      </c>
+      <c r="V33">
+        <v>0.194280908326325</v>
+      </c>
+      <c r="W33">
+        <v>0.24053826745164</v>
+      </c>
+      <c r="X33">
+        <v>0.39005043107118498</v>
+      </c>
+      <c r="Y33">
+        <v>0.26507541094697201</v>
+      </c>
+      <c r="Z33">
+        <v>0.21320437342304499</v>
+      </c>
+      <c r="AA33">
+        <v>0.39655172413793099</v>
+      </c>
+      <c r="AB33">
+        <v>0.54920100925147197</v>
+      </c>
+      <c r="AC33">
+        <v>0.67325483599663605</v>
+      </c>
+      <c r="AD33">
+        <v>0.75862068965517204</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>1600</v>
+      </c>
+      <c r="E34">
+        <v>0.8</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0.5</v>
+      </c>
+      <c r="L34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" t="s">
+        <v>33</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R34">
+        <v>1509.90735912532</v>
+      </c>
+      <c r="S34">
+        <v>1044.28</v>
+      </c>
+      <c r="T34">
+        <v>9.7560975609756101E-2</v>
+      </c>
+      <c r="U34">
+        <v>0.14297729184188401</v>
+      </c>
+      <c r="V34">
+        <v>0.19386038687973101</v>
+      </c>
+      <c r="W34">
+        <v>0.250210260723297</v>
+      </c>
+      <c r="X34">
+        <v>0.38032721974392703</v>
+      </c>
+      <c r="Y34">
+        <v>0.25923040190454</v>
+      </c>
+      <c r="Z34">
+        <v>0.21362489486963801</v>
+      </c>
+      <c r="AA34">
+        <v>0.39697224558452499</v>
+      </c>
+      <c r="AB34">
+        <v>0.55466778805719097</v>
+      </c>
+      <c r="AC34">
+        <v>0.67703952901597997</v>
+      </c>
+      <c r="AD34">
+        <v>0.76871320437342305</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>1600</v>
+      </c>
+      <c r="E35">
+        <v>0.8</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0.5</v>
+      </c>
+      <c r="L35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" t="s">
+        <v>33</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>33</v>
+      </c>
+      <c r="R35">
+        <v>1555.01913372582</v>
+      </c>
+      <c r="S35">
+        <v>1096.9949999999999</v>
+      </c>
+      <c r="T35">
+        <v>8.9571068124474407E-2</v>
+      </c>
+      <c r="U35">
+        <v>0.131623212783852</v>
+      </c>
+      <c r="V35">
+        <v>0.175357443229605</v>
+      </c>
+      <c r="W35">
+        <v>0.222035323801514</v>
+      </c>
+      <c r="X35">
+        <v>0.39762753900456299</v>
+      </c>
+      <c r="Y35">
+        <v>0.27963666279003202</v>
+      </c>
+      <c r="Z35">
+        <v>0.19890664423885601</v>
+      </c>
+      <c r="AA35">
+        <v>0.38435660218671203</v>
+      </c>
+      <c r="AB35">
+        <v>0.52733389402859498</v>
+      </c>
+      <c r="AC35">
+        <v>0.65769554247266604</v>
+      </c>
+      <c r="AD35">
+        <v>0.75231286795626595</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>1600</v>
+      </c>
+      <c r="E36">
+        <v>0.8</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0.5</v>
+      </c>
+      <c r="L36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" t="s">
+        <v>33</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>33</v>
+      </c>
+      <c r="R36">
+        <v>1531.4762026913399</v>
+      </c>
+      <c r="S36">
+        <v>1062.47</v>
+      </c>
+      <c r="T36">
+        <v>9.0412111017661903E-2</v>
+      </c>
+      <c r="U36">
+        <v>0.14129520605550899</v>
+      </c>
+      <c r="V36">
+        <v>0.193019343986543</v>
+      </c>
+      <c r="W36">
+        <v>0.24137931034482801</v>
+      </c>
+      <c r="X36">
+        <v>0.38791729439040201</v>
+      </c>
+      <c r="Y36">
+        <v>0.261651938251109</v>
+      </c>
+      <c r="Z36">
+        <v>0.20185029436501301</v>
+      </c>
+      <c r="AA36">
+        <v>0.40370058873002501</v>
+      </c>
+      <c r="AB36">
+        <v>0.55929352396972198</v>
+      </c>
+      <c r="AC36">
+        <v>0.67451640033641702</v>
+      </c>
+      <c r="AD36">
+        <v>0.75651808242220397</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>30</v>
+      </c>
+      <c r="D37">
+        <v>1600</v>
+      </c>
+      <c r="E37">
+        <v>0.8</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0.5</v>
+      </c>
+      <c r="L37" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37" t="s">
+        <v>33</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>33</v>
+      </c>
+      <c r="R37">
+        <v>1461.3853574432301</v>
+      </c>
+      <c r="S37">
+        <v>1033.55</v>
+      </c>
+      <c r="T37">
+        <v>9.6719932716568494E-2</v>
+      </c>
+      <c r="U37">
+        <v>0.14297729184188401</v>
+      </c>
+      <c r="V37">
+        <v>0.19049621530698099</v>
+      </c>
+      <c r="W37">
+        <v>0.248528174936922</v>
+      </c>
+      <c r="X37">
+        <v>0.36984150556148498</v>
+      </c>
+      <c r="Y37">
+        <v>0.254116835868681</v>
+      </c>
+      <c r="Z37">
+        <v>0.21446593776282599</v>
+      </c>
+      <c r="AA37">
+        <v>0.41337258200168198</v>
+      </c>
+      <c r="AB37">
+        <v>0.55677039529016004</v>
+      </c>
+      <c r="AC37">
+        <v>0.69007569386038703</v>
+      </c>
+      <c r="AD37">
+        <v>0.77249789739276697</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38">
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>1600</v>
+      </c>
+      <c r="E38">
+        <v>0.8</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0.5</v>
+      </c>
+      <c r="L38" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>33</v>
+      </c>
+      <c r="R38">
+        <v>1477.52502426409</v>
+      </c>
+      <c r="S38">
+        <v>1049.1600000000001</v>
+      </c>
+      <c r="T38">
+        <v>0.10344827586206901</v>
+      </c>
+      <c r="U38">
+        <v>0.14465937762825901</v>
+      </c>
+      <c r="V38">
+        <v>0.19596299411269999</v>
+      </c>
+      <c r="W38">
+        <v>0.24264087468460899</v>
+      </c>
+      <c r="X38">
+        <v>0.36662731716754898</v>
+      </c>
+      <c r="Y38">
+        <v>0.25757174795683602</v>
+      </c>
+      <c r="Z38">
+        <v>0.20563498738435701</v>
+      </c>
+      <c r="AA38">
+        <v>0.40033641715727503</v>
+      </c>
+      <c r="AB38">
+        <v>0.569386038687973</v>
+      </c>
+      <c r="AC38">
+        <v>0.68839360807401195</v>
+      </c>
+      <c r="AD38">
+        <v>0.77712363330529899</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
